--- a/biology/Botanique/Homalium_guianense/Homalium_guianense.xlsx
+++ b/biology/Botanique/Homalium_guianense/Homalium_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalium guianense est une espèce de plantes à fleurs de la famille des Salicaceae (anciennement des Flacourtiaceae). C'est un arbre d'origine sud-américaine.
-En Guyane, il est nommé Acomas a epis, Acomas en epis, Mavave, Maveve, Racoube de la Guiane[3]. On rapporte au Suriname les noms de Bita hoedoe (Nenge tongo)[4] et Aakubagoón (Saramaka : Akuba était un célèbre ancêtre Aukan du village de Mainsi, Tapanahoni)[5]. Au Venezuela, on l'appelle Dujo (Yekwana)[6]. Il est connu au Brésil sous les noms de Sardinheira, Turimã-branco (Portugais)[7].
+En Guyane, il est nommé Acomas a epis, Acomas en epis, Mavave, Maveve, Racoube de la Guiane. On rapporte au Suriname les noms de Bita hoedoe (Nenge tongo) et Aakubagoón (Saramaka : Akuba était un célèbre ancêtre Aukan du village de Mainsi, Tapanahoni). Au Venezuela, on l'appelle Dujo (Yekwana). Il est connu au Brésil sous les noms de Sardinheira, Turimã-branco (Portugais).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalium guianense est un petit arbre ou arbuste atteignant 25-30 m de haut.
-La base du tronc est droite ou dotée de racines adventives, ou des contreforts[8].
+La base du tronc est droite ou dotée de racines adventives, ou des contreforts.
 Le rhytidome est de couleur gris clair, densément lenticellé, lisse.
 Le phloème est de couleur brun clair, avec l'écorce vivante blanche, de couleur crème rousse.
 Son bois est léger (densité : 0,56-0,66 g/cm3).
@@ -528,7 +542,7 @@
 Les étamines sont organisées en 2-4 fasceaux, avec des filets dépassant pour la plupart les pétales.
 L'ovaire est villeux à l'extérieur et à l'intérieur, surmonté de 3 styles.
 Les fruits sont des capsules, indéhiscentes, coriaces, mesurant 1 × 0,8 cm, et contienant 1 graine unique.
-La graine, de forme oblongue-obovoïde, est longue de 2,5 mm[6],[7],[4],[9].
+La graine, de forme oblongue-obovoïde, est longue de 2,5 mm.
 </t>
         </is>
       </c>
@@ -557,11 +571,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalium guianense est présent de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou[6], mais aussi en Afrique (?)[10].
-D'après certaines sources, sa répartition s'étend depuis l'Amérique centrale (du sud du Mexique au Panama) jusqu'à l'ensemble de l'Amazonie : du Nord (Venezuela, Colombie, Guyanes, bassin supérieur du rio Negro), de l'ouest (pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, l'Amazonie équatorienne, péruvienne, bolivienne sud-colombienne, et l'Acre), et du centre (de la frontière occidentale du Brésil, Amazonas, jusqu'au bassin du Tapajós)[7].
-Une étude rapporte la présence (surprenante) de Homalium guianense à Bukit Batu Putih (Parc national de Bantimurung-Bulusaraung, Célèbes, Indonésie)[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalium guianense est présent de la Colombie au Brésil en passant par le Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou, mais aussi en Afrique (?).
+D'après certaines sources, sa répartition s'étend depuis l'Amérique centrale (du sud du Mexique au Panama) jusqu'à l'ensemble de l'Amazonie : du Nord (Venezuela, Colombie, Guyanes, bassin supérieur du rio Negro), de l'ouest (pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, l'Amazonie équatorienne, péruvienne, bolivienne sud-colombienne, et l'Acre), et du centre (de la frontière occidentale du Brésil, Amazonas, jusqu'au bassin du Tapajós).
+Une étude rapporte la présence (surprenante) de Homalium guianense à Bukit Batu Putih (Parc national de Bantimurung-Bulusaraung, Célèbes, Indonésie).
 </t>
         </is>
       </c>
@@ -590,18 +606,20 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalium guianense est un arbre poussant au Venezuela dans les forêts de plaine caducifoliées à sempervirentes, les forêts ripicoles, généralement dans le sous-étage, autour de 50–400 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalium guianense est un arbre poussant au Venezuela dans les forêts de plaine caducifoliées à sempervirentes, les forêts ripicoles, généralement dans le sous-étage, autour de 50–400 m d'altitude.
 Au Brésil, Homalium guianense est un arbre commun de la canopée supérieure des forêts secondaires tardives de basse várzea :
 on le rencontre fréquemment dans les plaine inondable basse, où les forêts sont inondées de plus de 3,0 m de hauteur, durant à une période moyenne d'inondation de plus de 50 jours par an.
 Il pousse dans les forêts secondaires âgées de 50-60 à 150 ans.
 Il atteint la canopée supérieure, généralement avec une hauteur maximale des arbres supérieure à 25 m.
-Il ne présente de chute de feuilles remarquable[12].
-Son diamètre croît de 4,6 ± 1,1 mm/an en moyenne[7].
-Homalium guianense est une espèce pionnière, zoochore, plutôt sciaphile[13],[14].
-La structure du bois d’Homalium guianense a été étudiée[15],[16].
-Homalium guianense est pollinisé par divers petits insectes[17].
+Il ne présente de chute de feuilles remarquable.
+Son diamètre croît de 4,6 ± 1,1 mm/an en moyenne.
+Homalium guianense est une espèce pionnière, zoochore, plutôt sciaphile,.
+La structure du bois d’Homalium guianense a été étudiée,.
+Homalium guianense est pollinisé par divers petits insectes.
 </t>
         </is>
       </c>
@@ -630,9 +648,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas d'utilisation connue pour Homalium guianense[18].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas d'utilisation connue pour Homalium guianense.
 </t>
         </is>
       </c>
@@ -661,9 +681,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[19] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant :
 « RACOUBEA Guianenſis. (Tabula 236.)
 Frutex trunco quadri-pedali. Rami ſex vel octo-pedales, tortuoſi. Folia alterna, petiolata, glabra, rigida, ovata, dentata, obtuse acuta. Stipulæ binæ, exiguæ, ad baſim petiolorum. Flores in Ipica terminali aut axillari, ſeſſiles, alterni, remoti, e ſinuſquamulæ exeuntes. Corolla lutea.
 Florebat, fructumque ferebat Maio.
@@ -680,7 +702,7 @@
 On emploie la racine de cet arbriſſeau en tiſanne pour guérir les gonorrhées.
 Les Créoles appellent cet arbriſſeau MAVEVE, nom qu'ils donnent a pluſieurs plantes dont ils ſont uſage pour la cure de différences maladies. »
 — Fusée-Aublet, 1775.
-En 1775, le botaniste Aublet propose le protologue suivant pour Napimoga guianensis (synonyme de Homalium guianense)[20] :
+En 1775, le botaniste Aublet propose le protologue suivant pour Napimoga guianensis (synonyme de Homalium guianense) :
 « NAPIMOGA Guianenſis. (Tabula 237.)
 Arbor procera ; foliis alternis, ovatis, ſerratis ; stipulis duabus citó deciduis. Flores ſeſſiles, exigui, in ſpicam tenuem interruptam; diſpoſiti. Petala ſex, villoſa, ſubviridia. Fructus mini ignotus.
 Florebat menſe Novembri.
